--- a/REGULAR/OJT/NEW DONE/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/OLEGARIO NENITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123F5F4-C710-428E-8327-6453B578C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="444">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1381,7 +1380,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2108,25 +2107,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K717" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K718" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2433,34 +2432,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K717"/>
+  <dimension ref="A2:K718"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A665" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="E681" sqref="E681"/>
+      <selection pane="bottomLeft" activeCell="B683" sqref="B683"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2483,7 +2482,7 @@
       <c r="J2" s="60"/>
       <c r="K2" s="61"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2505,7 +2504,7 @@
       <c r="J3" s="62"/>
       <c r="K3" s="63"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2527,7 +2526,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2535,7 +2534,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2548,7 +2547,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -2565,7 +2564,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2619,12 +2618,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>35.647999999999968</v>
+        <v>34.647999999999968</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>98</v>
       </c>
@@ -2643,7 +2642,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34335</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>34341</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>125</v>
@@ -2691,7 +2690,7 @@
         <v>34361</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34366</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>34393</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34394</v>
       </c>
@@ -2739,7 +2738,7 @@
         <v>34424</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>125</v>
@@ -2761,7 +2760,7 @@
         <v>34407</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>125</v>
@@ -2783,7 +2782,7 @@
         <v>34409</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>122</v>
@@ -2803,7 +2802,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -2821,7 +2820,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -2839,7 +2838,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34425</v>
       </c>
@@ -2863,7 +2862,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>124</v>
@@ -2885,7 +2884,7 @@
         <v>34454</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34455</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>95</v>
@@ -2930,7 +2929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>125</v>
@@ -2949,7 +2948,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -2968,7 +2967,7 @@
         <v>34480</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>125</v>
@@ -2990,7 +2989,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34486</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>34515</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>125</v>
@@ -3038,7 +3037,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>34516</v>
       </c>
@@ -3064,7 +3063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>93</v>
@@ -3083,7 +3082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>132</v>
@@ -3102,7 +3101,7 @@
         <v>34546</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34547</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>34577</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>125</v>
@@ -3150,7 +3149,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>125</v>
@@ -3170,7 +3169,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34578</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34608</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>34638</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>125</v>
@@ -3242,7 +3241,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
@@ -3262,7 +3261,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34639</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>34668</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>125</v>
@@ -3310,7 +3309,7 @@
         <v>34646</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34669</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>125</v>
@@ -3358,7 +3357,7 @@
         <v>34677</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>99</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>34700</v>
       </c>
@@ -3402,7 +3401,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>124</v>
@@ -3424,7 +3423,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>125</v>
@@ -3446,7 +3445,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34731</v>
       </c>
@@ -3470,7 +3469,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>124</v>
@@ -3492,7 +3491,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>125</v>
@@ -3512,7 +3511,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>34759</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>93</v>
@@ -3560,7 +3559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>136</v>
@@ -3582,7 +3581,7 @@
         <v>34789</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>125</v>
@@ -3602,7 +3601,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>125</v>
@@ -3622,7 +3621,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>34790</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>149</v>
@@ -3670,7 +3669,7 @@
         <v>34819</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>34820</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>152</v>
@@ -3718,7 +3717,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>125</v>
@@ -3740,7 +3739,7 @@
         <v>34834</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>125</v>
@@ -3762,7 +3761,7 @@
         <v>34843</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>125</v>
@@ -3784,7 +3783,7 @@
         <v>34821</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>125</v>
@@ -3806,7 +3805,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>34851</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>132</v>
@@ -3854,7 +3853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>125</v>
@@ -3876,7 +3875,7 @@
         <v>34872</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>34881</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>132</v>
@@ -3924,7 +3923,7 @@
         <v>34911</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>125</v>
@@ -3946,7 +3945,7 @@
         <v>34898</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>34912</v>
       </c>
@@ -3972,7 +3971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>124</v>
@@ -3994,7 +3993,7 @@
         <v>34942</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>125</v>
@@ -4016,7 +4015,7 @@
         <v>34925</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>125</v>
@@ -4038,7 +4037,7 @@
         <v>34919</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>34943</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>124</v>
@@ -4086,7 +4085,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>125</v>
@@ -4108,7 +4107,7 @@
         <v>34949</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>34973</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>35003</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35004</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35034</v>
       </c>
@@ -4182,7 +4181,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>95</v>
@@ -4204,7 +4203,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>132</v>
@@ -4226,7 +4225,7 @@
         <v>35064</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>125</v>
@@ -4248,7 +4247,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>100</v>
       </c>
@@ -4270,7 +4269,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35065</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>35095</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35096</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>35125</v>
       </c>
@@ -4340,7 +4339,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>125</v>
@@ -4362,7 +4361,7 @@
         <v>35143</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>95</v>
@@ -4384,7 +4383,7 @@
         <v>35155</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>136</v>
@@ -4404,7 +4403,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>35156</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35186</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>35216</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>125</v>
@@ -4478,7 +4477,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>35217</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>125</v>
@@ -4521,7 +4520,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>125</v>
@@ -4540,7 +4539,7 @@
         <v>35244</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>35247</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>35277</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>167</v>
@@ -4586,7 +4585,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>35278</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>35308</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>35309</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>125</v>
@@ -4657,7 +4656,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>170</v>
@@ -4674,7 +4673,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>35339</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>125</v>
@@ -4722,7 +4721,7 @@
         <v>35347</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>125</v>
@@ -4744,7 +4743,7 @@
         <v>35356</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>125</v>
@@ -4766,7 +4765,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>35370</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>167</v>
@@ -4807,7 +4806,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>124</v>
@@ -4826,7 +4825,7 @@
         <v>35399</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>125</v>
@@ -4845,7 +4844,7 @@
         <v>35383</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>125</v>
@@ -4864,7 +4863,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>35400</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>35430</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>174</v>
@@ -4909,7 +4908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>125</v>
@@ -4928,7 +4927,7 @@
         <v>35405</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>125</v>
@@ -4947,7 +4946,7 @@
         <v>35412</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>125</v>
@@ -4966,7 +4965,7 @@
         <v>35426</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>101</v>
       </c>
@@ -4988,7 +4987,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>35431</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>35461</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>125</v>
@@ -5036,7 +5035,7 @@
         <v>35451</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>35462</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>132</v>
@@ -5081,7 +5080,7 @@
         <v>35489</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>35490</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>35510</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>175</v>
@@ -5129,7 +5128,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>167</v>
@@ -5149,7 +5148,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>125</v>
@@ -5171,7 +5170,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
@@ -5193,7 +5192,7 @@
         <v>35506</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>35521</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>167</v>
@@ -5236,7 +5235,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>125</v>
@@ -5255,7 +5254,7 @@
         <v>35537</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>125</v>
@@ -5274,7 +5273,7 @@
         <v>35538</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>35551</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>125</v>
@@ -5322,7 +5321,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>35582</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>125</v>
@@ -5367,7 +5366,7 @@
         <v>35586</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>35612</v>
       </c>
@@ -5391,7 +5390,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>124</v>
@@ -5410,7 +5409,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>125</v>
@@ -5429,7 +5428,7 @@
         <v>35627</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>35643</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>125</v>
@@ -5474,7 +5473,7 @@
         <v>35663</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>35674</v>
       </c>
@@ -5498,7 +5497,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>125</v>
@@ -5518,7 +5517,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5536,7 +5535,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>35704</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>35735</v>
       </c>
@@ -5586,7 +5585,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>35765</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>95</v>
@@ -5632,7 +5631,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>124</v>
@@ -5654,7 +5653,7 @@
         <v>35795</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>102</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>35796</v>
       </c>
@@ -5700,7 +5699,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>35827</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>186</v>
@@ -5743,7 +5742,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>35855</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>35885</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>93</v>
@@ -5788,7 +5787,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>164</v>
@@ -5805,7 +5804,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>125</v>
@@ -5824,7 +5823,7 @@
         <v>35877</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>35886</v>
       </c>
@@ -5848,7 +5847,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>125</v>
@@ -5870,7 +5869,7 @@
         <v>35909</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>35916</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>35944</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>190</v>
@@ -5916,7 +5915,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>125</v>
@@ -5938,7 +5937,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>35947</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>189</v>
@@ -5984,7 +5983,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>167</v>
@@ -6004,7 +6003,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>35977</v>
       </c>
@@ -6030,7 +6029,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>125</v>
@@ -6052,7 +6051,7 @@
         <v>35989</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>36008</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>36018</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>132</v>
@@ -6100,7 +6099,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>132</v>
@@ -6122,7 +6121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>152</v>
@@ -6144,7 +6143,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>192</v>
@@ -6164,7 +6163,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>36039</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>36039</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>181</v>
@@ -6209,7 +6208,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>186</v>
@@ -6226,7 +6225,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="49"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>167</v>
@@ -6243,7 +6242,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>36069</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>36087</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>199</v>
@@ -6289,7 +6288,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>36100</v>
       </c>
@@ -6313,7 +6312,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>36130</v>
       </c>
@@ -6337,7 +6336,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>201</v>
@@ -6355,7 +6354,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>103</v>
       </c>
@@ -6377,7 +6376,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>36161</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>124</v>
@@ -6422,7 +6421,7 @@
         <v>36202</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>202</v>
@@ -6439,7 +6438,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>36192</v>
       </c>
@@ -6463,7 +6462,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>175</v>
@@ -6480,7 +6479,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>167</v>
@@ -6500,7 +6499,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>36220</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -6545,7 +6544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>172</v>
@@ -6566,7 +6565,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>36251</v>
       </c>
@@ -6592,7 +6591,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>210</v>
@@ -6614,7 +6613,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>36281</v>
       </c>
@@ -6638,7 +6637,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>167</v>
@@ -6658,7 +6657,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>36312</v>
       </c>
@@ -6682,7 +6681,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>167</v>
@@ -6704,7 +6703,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>36342</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>214</v>
@@ -6752,7 +6751,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>36373</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>36381</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>215</v>
@@ -6798,7 +6797,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>36404</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>216</v>
@@ -6844,7 +6843,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>36434</v>
       </c>
@@ -6868,7 +6867,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>36465</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>36488</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>218</v>
@@ -6914,7 +6913,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>36495</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>218</v>
@@ -6960,7 +6959,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="48" t="s">
         <v>104</v>
       </c>
@@ -6982,7 +6981,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>36526</v>
       </c>
@@ -7006,7 +7005,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>36557</v>
       </c>
@@ -7030,7 +7029,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>36586</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>224</v>
@@ -7073,7 +7072,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>167</v>
@@ -7090,7 +7089,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>167</v>
@@ -7107,7 +7106,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>36617</v>
       </c>
@@ -7131,7 +7130,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>36647</v>
       </c>
@@ -7155,7 +7154,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>167</v>
@@ -7175,7 +7174,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>36678</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>230</v>
@@ -7221,7 +7220,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>36708</v>
       </c>
@@ -7245,7 +7244,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>36739</v>
       </c>
@@ -7269,7 +7268,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>36770</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>36787</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>227</v>
@@ -7312,7 +7311,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>36800</v>
       </c>
@@ -7336,7 +7335,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>36831</v>
       </c>
@@ -7362,7 +7361,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>235</v>
@@ -7379,7 +7378,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>36861</v>
       </c>
@@ -7403,7 +7402,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>105</v>
       </c>
@@ -7425,7 +7424,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>36892</v>
       </c>
@@ -7449,7 +7448,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>36923</v>
       </c>
@@ -7473,7 +7472,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>167</v>
@@ -7493,7 +7492,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>36951</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>36963</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>93</v>
@@ -7541,7 +7540,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>242</v>
@@ -7561,7 +7560,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>36982</v>
       </c>
@@ -7585,7 +7584,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>167</v>
@@ -7605,7 +7604,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>37012</v>
       </c>
@@ -7629,7 +7628,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>167</v>
@@ -7649,7 +7648,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>37043</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>37060</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>244</v>
@@ -7695,7 +7694,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>37073</v>
       </c>
@@ -7719,7 +7718,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>37104</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>37104</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>245</v>
@@ -7767,7 +7766,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>246</v>
@@ -7787,7 +7786,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>37135</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>37178</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>244</v>
@@ -7833,7 +7832,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>37165</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>136</v>
@@ -7881,7 +7880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>244</v>
@@ -7901,7 +7900,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>37196</v>
       </c>
@@ -7925,7 +7924,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>37226</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>124</v>
@@ -7973,7 +7972,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>188</v>
@@ -7993,7 +7992,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="48" t="s">
         <v>106</v>
       </c>
@@ -8015,7 +8014,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>37257</v>
       </c>
@@ -8043,7 +8042,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>222</v>
@@ -8063,7 +8062,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>37288</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>37316</v>
       </c>
@@ -8113,7 +8112,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>37347</v>
       </c>
@@ -8137,7 +8136,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>257</v>
@@ -8157,7 +8156,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>167</v>
@@ -8177,7 +8176,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>37377</v>
       </c>
@@ -8201,7 +8200,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>37408</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>37438</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>124</v>
@@ -8273,7 +8272,7 @@
         <v>37459</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>167</v>
@@ -8293,7 +8292,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>37469</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>37500</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>124</v>
@@ -8367,7 +8366,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>37530</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>37547</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>140</v>
@@ -8413,7 +8412,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>37561</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>124</v>
@@ -8461,7 +8460,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>264</v>
@@ -8478,7 +8477,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>37591</v>
       </c>
@@ -8502,7 +8501,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
         <v>107</v>
       </c>
@@ -8524,7 +8523,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>37622</v>
       </c>
@@ -8550,7 +8549,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>266</v>
@@ -8567,7 +8566,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>167</v>
@@ -8584,7 +8583,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>37653</v>
       </c>
@@ -8604,7 +8603,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>37681</v>
       </c>
@@ -8630,7 +8629,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>37712</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>37742</v>
       </c>
@@ -8676,7 +8675,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>37773</v>
       </c>
@@ -8700,7 +8699,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>37803</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>124</v>
@@ -8748,7 +8747,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>270</v>
@@ -8768,7 +8767,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>37834</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>271</v>
@@ -8814,7 +8813,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>37865</v>
       </c>
@@ -8840,7 +8839,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>136</v>
@@ -8862,7 +8861,7 @@
         <v>37879</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>136</v>
@@ -8884,7 +8883,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>272</v>
@@ -8904,7 +8903,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>37895</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>273</v>
@@ -8950,7 +8949,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>167</v>
@@ -8970,7 +8969,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>37926</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>95</v>
@@ -9016,7 +9015,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>124</v>
@@ -9038,7 +9037,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>274</v>
@@ -9058,7 +9057,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>167</v>
@@ -9078,7 +9077,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>37956</v>
       </c>
@@ -9102,7 +9101,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="48" t="s">
         <v>108</v>
       </c>
@@ -9124,7 +9123,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>37987</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>282</v>
@@ -9167,7 +9166,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>38018</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>38022</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>284</v>
@@ -9213,7 +9212,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>167</v>
@@ -9230,7 +9229,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>167</v>
@@ -9250,7 +9249,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>38047</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>38065</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>124</v>
@@ -9298,7 +9297,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>285</v>
@@ -9318,7 +9317,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>38078</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>38098</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>124</v>
@@ -9366,7 +9365,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>286</v>
@@ -9386,7 +9385,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>38108</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>124</v>
@@ -9434,7 +9433,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>287</v>
@@ -9454,7 +9453,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>38139</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>124</v>
@@ -9502,7 +9501,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>167</v>
@@ -9522,7 +9521,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>93</v>
@@ -9544,7 +9543,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>288</v>
@@ -9564,7 +9563,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>38169</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>289</v>
@@ -9610,7 +9609,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>38200</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>95</v>
@@ -9657,7 +9656,7 @@
         <v>38218</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>297</v>
@@ -9674,7 +9673,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>176</v>
@@ -9696,7 +9695,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>38231</v>
       </c>
@@ -9722,7 +9721,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>299</v>
@@ -9739,7 +9738,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>38261</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>38271</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>217</v>
@@ -9782,7 +9781,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>38292</v>
       </c>
@@ -9808,7 +9807,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>301</v>
@@ -9825,7 +9824,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>38322</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>38341</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>298</v>
@@ -9875,7 +9874,7 @@
         <v>38337</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>215</v>
@@ -9892,7 +9891,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>109</v>
       </c>
@@ -9914,7 +9913,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>38353</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>38356</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>167</v>
@@ -9960,7 +9959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>302</v>
@@ -9980,7 +9979,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>38384</v>
       </c>
@@ -10004,7 +10003,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>167</v>
@@ -10024,7 +10023,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>38412</v>
       </c>
@@ -10044,7 +10043,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>38443</v>
       </c>
@@ -10064,7 +10063,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>38473</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>38504</v>
       </c>
@@ -10110,7 +10109,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>38534</v>
       </c>
@@ -10136,7 +10135,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>124</v>
@@ -10155,7 +10154,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>38565</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>38576</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>124</v>
@@ -10203,7 +10202,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>38596</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>38626</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>38657</v>
       </c>
@@ -10275,7 +10274,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>38687</v>
       </c>
@@ -10299,7 +10298,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>132</v>
@@ -10319,7 +10318,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="48" t="s">
         <v>110</v>
       </c>
@@ -10341,7 +10340,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>38718</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>38749</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>38777</v>
       </c>
@@ -10419,7 +10418,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>167</v>
@@ -10439,7 +10438,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>311</v>
@@ -10459,7 +10458,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>38808</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>124</v>
@@ -10507,7 +10506,7 @@
         <v>38813</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>124</v>
@@ -10529,7 +10528,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>38838</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>38869</v>
       </c>
@@ -10575,7 +10574,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>38899</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>136</v>
@@ -10623,7 +10622,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>38930</v>
       </c>
@@ -10643,7 +10642,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>38961</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>306</v>
@@ -10691,7 +10690,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>124</v>
@@ -10713,7 +10712,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>38991</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>124</v>
@@ -10761,7 +10760,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>39022</v>
       </c>
@@ -10781,7 +10780,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>39052</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>132</v>
@@ -10829,7 +10828,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>111</v>
       </c>
@@ -10853,7 +10852,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>39083</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>167</v>
@@ -10897,7 +10896,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>39114</v>
       </c>
@@ -10923,7 +10922,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>124</v>
@@ -10945,7 +10944,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>298</v>
@@ -10969,7 +10968,7 @@
         <v>39140</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>39142</v>
       </c>
@@ -10995,7 +10994,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>39173</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>306</v>
@@ -11040,7 +11039,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>298</v>
@@ -11061,7 +11060,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>39203</v>
       </c>
@@ -11081,7 +11080,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>39234</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>298</v>
@@ -11128,7 +11127,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>201</v>
@@ -11147,7 +11146,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>39264</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>323</v>
@@ -11197,7 +11196,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>298</v>
@@ -11219,7 +11218,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>39295</v>
       </c>
@@ -11245,7 +11244,7 @@
         <v>39296</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>298</v>
@@ -11269,7 +11268,7 @@
         <v>39313</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>39326</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>323</v>
@@ -11319,7 +11318,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>324</v>
@@ -11339,7 +11338,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>298</v>
@@ -11359,7 +11358,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>39356</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>39387</v>
       </c>
@@ -11405,7 +11404,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>39417</v>
       </c>
@@ -11431,7 +11430,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>323</v>
@@ -11448,7 +11447,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="48" t="s">
         <v>112</v>
       </c>
@@ -11470,7 +11469,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>39448</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>244</v>
@@ -11516,7 +11515,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>39479</v>
       </c>
@@ -11542,7 +11541,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>39508</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>124</v>
@@ -11588,7 +11587,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>167</v>
@@ -11608,7 +11607,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>244</v>
@@ -11628,7 +11627,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>39539</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>332</v>
@@ -11674,7 +11673,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>39569</v>
       </c>
@@ -11700,7 +11699,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>328</v>
@@ -11720,7 +11719,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>333</v>
@@ -11744,7 +11743,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>124</v>
@@ -11764,7 +11763,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>330</v>
@@ -11788,7 +11787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>136</v>
@@ -11810,7 +11809,7 @@
       </c>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>331</v>
@@ -11830,7 +11829,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>167</v>
@@ -11850,7 +11849,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>39600</v>
       </c>
@@ -11876,7 +11875,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>39630</v>
       </c>
@@ -11900,7 +11899,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>39661</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>332</v>
@@ -11943,7 +11942,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>39692</v>
       </c>
@@ -11969,7 +11968,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>39722</v>
       </c>
@@ -11993,7 +11992,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>39753</v>
       </c>
@@ -12017,7 +12016,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>39783</v>
       </c>
@@ -12041,7 +12040,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>124</v>
@@ -12061,7 +12060,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="48" t="s">
         <v>113</v>
       </c>
@@ -12083,7 +12082,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>39814</v>
       </c>
@@ -12103,7 +12102,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>39845</v>
       </c>
@@ -12123,7 +12122,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>39873</v>
       </c>
@@ -12143,7 +12142,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>39904</v>
       </c>
@@ -12163,7 +12162,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>39934</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>311</v>
@@ -12207,7 +12206,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>39965</v>
       </c>
@@ -12227,7 +12226,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>39995</v>
       </c>
@@ -12247,7 +12246,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>40026</v>
       </c>
@@ -12267,7 +12266,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>40057</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>40087</v>
       </c>
@@ -12313,7 +12312,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>40118</v>
       </c>
@@ -12333,7 +12332,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>40148</v>
       </c>
@@ -12359,7 +12358,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>310</v>
@@ -12376,7 +12375,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>353</v>
@@ -12396,7 +12395,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>348</v>
@@ -12413,7 +12412,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="48" t="s">
         <v>114</v>
       </c>
@@ -12435,7 +12434,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>40179</v>
       </c>
@@ -12455,7 +12454,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>40210</v>
       </c>
@@ -12481,7 +12480,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>40238</v>
       </c>
@@ -12507,7 +12506,7 @@
         <v>40256</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>124</v>
@@ -12529,7 +12528,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>40269</v>
       </c>
@@ -12549,7 +12548,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>40299</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>167</v>
@@ -12595,7 +12594,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>201</v>
@@ -12617,7 +12616,7 @@
         <v>40344</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>40330</v>
       </c>
@@ -12637,7 +12636,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>40360</v>
       </c>
@@ -12661,7 +12660,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>40391</v>
       </c>
@@ -12687,7 +12686,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>40422</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>132</v>
@@ -12732,7 +12731,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>354</v>
@@ -12749,7 +12748,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>40452</v>
       </c>
@@ -12773,7 +12772,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>40483</v>
       </c>
@@ -12797,7 +12796,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>40513</v>
       </c>
@@ -12817,7 +12816,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
         <v>115</v>
       </c>
@@ -12839,7 +12838,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>40544</v>
       </c>
@@ -12865,7 +12864,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>213</v>
@@ -12886,7 +12885,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>40575</v>
       </c>
@@ -12906,7 +12905,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>40603</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>40634</v>
       </c>
@@ -12956,7 +12955,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>123</v>
@@ -12973,7 +12972,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>40664</v>
       </c>
@@ -12993,7 +12992,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>40695</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>361</v>
@@ -13034,7 +13033,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>40725</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>245</v>
@@ -13082,7 +13081,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>40756</v>
       </c>
@@ -13106,7 +13105,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>40787</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>40817</v>
       </c>
@@ -13158,7 +13157,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>40848</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>40878</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
         <v>116</v>
       </c>
@@ -13232,7 +13231,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>40909</v>
       </c>
@@ -13252,7 +13251,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>40940</v>
       </c>
@@ -13272,7 +13271,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>40969</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>167</v>
@@ -13315,7 +13314,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>41000</v>
       </c>
@@ -13335,7 +13334,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>41030</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>370</v>
@@ -13381,7 +13380,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>41061</v>
       </c>
@@ -13405,7 +13404,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>41091</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>124</v>
@@ -13453,7 +13452,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>372</v>
@@ -13473,7 +13472,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>41122</v>
       </c>
@@ -13497,7 +13496,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>41153</v>
       </c>
@@ -13523,7 +13522,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>41183</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>311</v>
@@ -13569,7 +13568,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>41214</v>
       </c>
@@ -13589,7 +13588,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>41244</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="48" t="s">
         <v>117</v>
       </c>
@@ -13637,7 +13636,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>41275</v>
       </c>
@@ -13657,7 +13656,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>41306</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>41334</v>
       </c>
@@ -13701,7 +13700,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>41365</v>
       </c>
@@ -13721,7 +13720,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>41395</v>
       </c>
@@ -13741,7 +13740,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>41426</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>41453</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>381</v>
@@ -13787,7 +13786,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>41456</v>
       </c>
@@ -13807,7 +13806,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>41487</v>
       </c>
@@ -13827,7 +13826,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>41518</v>
       </c>
@@ -13853,7 +13852,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>41548</v>
       </c>
@@ -13873,7 +13872,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>41579</v>
       </c>
@@ -13893,7 +13892,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>41609</v>
       </c>
@@ -13919,7 +13918,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>306</v>
@@ -13938,7 +13937,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>382</v>
@@ -13955,7 +13954,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="48" t="s">
         <v>118</v>
       </c>
@@ -13977,7 +13976,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>41640</v>
       </c>
@@ -14001,7 +14000,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>172</v>
@@ -14023,7 +14022,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>41671</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>385</v>
@@ -14064,7 +14063,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>149</v>
@@ -14086,7 +14085,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>41699</v>
       </c>
@@ -14110,7 +14109,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>391</v>
@@ -14132,7 +14131,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>41730</v>
       </c>
@@ -14156,7 +14155,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>132</v>
@@ -14180,7 +14179,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>181</v>
@@ -14204,7 +14203,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>41760</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>395</v>
@@ -14250,7 +14249,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>41791</v>
       </c>
@@ -14276,7 +14275,7 @@
       </c>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>132</v>
@@ -14298,7 +14297,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>41821</v>
       </c>
@@ -14322,7 +14321,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>124</v>
@@ -14344,7 +14343,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>41852</v>
       </c>
@@ -14370,7 +14369,7 @@
       </c>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>132</v>
@@ -14392,7 +14391,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>41883</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>399</v>
@@ -14440,7 +14439,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>41913</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>181</v>
@@ -14490,7 +14489,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>400</v>
@@ -14510,7 +14509,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>41944</v>
       </c>
@@ -14536,7 +14535,7 @@
       </c>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>132</v>
@@ -14558,7 +14557,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>41974</v>
       </c>
@@ -14586,7 +14585,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="48" t="s">
         <v>119</v>
       </c>
@@ -14608,7 +14607,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>42005</v>
       </c>
@@ -14632,7 +14631,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
         <v>403</v>
@@ -14652,7 +14651,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>42036</v>
       </c>
@@ -14672,7 +14671,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42064</v>
       </c>
@@ -14692,7 +14691,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42095</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>124</v>
@@ -14740,7 +14739,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>42125</v>
       </c>
@@ -14760,7 +14759,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42156</v>
       </c>
@@ -14780,7 +14779,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>42186</v>
       </c>
@@ -14800,7 +14799,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42217</v>
       </c>
@@ -14820,7 +14819,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>42248</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42278</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>136</v>
@@ -14891,7 +14890,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>167</v>
@@ -14908,7 +14907,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>414</v>
@@ -14925,7 +14924,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>42309</v>
       </c>
@@ -14949,7 +14948,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42339</v>
       </c>
@@ -14973,7 +14972,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>416</v>
@@ -14990,7 +14989,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="48" t="s">
         <v>120</v>
       </c>
@@ -15009,7 +15008,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42370</v>
       </c>
@@ -15029,7 +15028,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>42401</v>
       </c>
@@ -15049,7 +15048,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>42430</v>
       </c>
@@ -15069,7 +15068,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42461</v>
       </c>
@@ -15089,7 +15088,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>42491</v>
       </c>
@@ -15109,7 +15108,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>42522</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42552</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>42583</v>
       </c>
@@ -15187,7 +15186,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>42614</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>42644</v>
       </c>
@@ -15233,7 +15232,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>42675</v>
       </c>
@@ -15253,7 +15252,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>42705</v>
       </c>
@@ -15279,7 +15278,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="48" t="s">
         <v>121</v>
       </c>
@@ -15301,7 +15300,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>42736</v>
       </c>
@@ -15325,7 +15324,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>42767</v>
       </c>
@@ -15351,7 +15350,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>425</v>
@@ -15371,7 +15370,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>42795</v>
       </c>
@@ -15395,7 +15394,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>124</v>
@@ -15417,7 +15416,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>181</v>
@@ -15439,7 +15438,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>384</v>
@@ -15459,7 +15458,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>42826</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>42856</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>42887</v>
       </c>
@@ -15531,7 +15530,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>42917</v>
       </c>
@@ -15551,7 +15550,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>42948</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>124</v>
@@ -15599,7 +15598,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>136</v>
@@ -15621,7 +15620,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>93</v>
@@ -15643,7 +15642,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>42979</v>
       </c>
@@ -15669,7 +15668,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43009</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43040</v>
       </c>
@@ -15721,7 +15720,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>290</v>
@@ -15745,7 +15744,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43070</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="48" t="s">
         <v>46</v>
       </c>
@@ -15789,7 +15788,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43101</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43132</v>
       </c>
@@ -15843,7 +15842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43160</v>
       </c>
@@ -15867,7 +15866,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43191</v>
       </c>
@@ -15887,7 +15886,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="41">
         <v>43221</v>
       </c>
@@ -15907,7 +15906,7 @@
       <c r="J602" s="12"/>
       <c r="K602" s="15"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43252</v>
       </c>
@@ -15933,7 +15932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>43282</v>
       </c>
@@ -15959,7 +15958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43313</v>
       </c>
@@ -15985,7 +15984,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>440</v>
@@ -16007,7 +16006,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>441</v>
@@ -16029,7 +16028,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>43344</v>
       </c>
@@ -16049,7 +16048,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43374</v>
       </c>
@@ -16069,7 +16068,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>43405</v>
       </c>
@@ -16095,7 +16094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43435</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="48" t="s">
         <v>58</v>
       </c>
@@ -16139,7 +16138,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43466</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20" t="s">
         <v>51</v>
@@ -16181,7 +16180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>49</v>
@@ -16205,7 +16204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43497</v>
       </c>
@@ -16225,7 +16224,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>43525</v>
       </c>
@@ -16245,7 +16244,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43556</v>
       </c>
@@ -16271,7 +16270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43586</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>47</v>
@@ -16319,7 +16318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43617</v>
       </c>
@@ -16339,7 +16338,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43647</v>
       </c>
@@ -16365,7 +16364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>49</v>
@@ -16387,7 +16386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43678</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43709</v>
       </c>
@@ -16439,7 +16438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>442</v>
@@ -16461,7 +16460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>51</v>
@@ -16481,7 +16480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>43739</v>
       </c>
@@ -16501,7 +16500,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>43770</v>
       </c>
@@ -16527,7 +16526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>49</v>
@@ -16549,7 +16548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>43800</v>
       </c>
@@ -16569,7 +16568,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="23" t="s">
         <v>72</v>
       </c>
@@ -16587,7 +16586,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>43831</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>51</v>
@@ -16631,7 +16630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>51</v>
@@ -16651,7 +16650,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>43862</v>
       </c>
@@ -16671,7 +16670,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>43891</v>
       </c>
@@ -16691,7 +16690,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>43922</v>
       </c>
@@ -16711,7 +16710,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43952</v>
       </c>
@@ -16731,7 +16730,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>43983</v>
       </c>
@@ -16751,7 +16750,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>44013</v>
       </c>
@@ -16777,7 +16776,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>47</v>
@@ -16799,7 +16798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44044</v>
       </c>
@@ -16819,7 +16818,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44075</v>
       </c>
@@ -16839,7 +16838,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44105</v>
       </c>
@@ -16859,7 +16858,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44136</v>
       </c>
@@ -16879,7 +16878,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44166</v>
       </c>
@@ -16903,7 +16902,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="48" t="s">
         <v>80</v>
       </c>
@@ -16921,7 +16920,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44197</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44228</v>
       </c>
@@ -16967,7 +16966,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44256</v>
       </c>
@@ -16987,7 +16986,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44287</v>
       </c>
@@ -17007,7 +17006,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44317</v>
       </c>
@@ -17027,7 +17026,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44348</v>
       </c>
@@ -17051,7 +17050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44378</v>
       </c>
@@ -17071,7 +17070,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44409</v>
       </c>
@@ -17091,7 +17090,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44440</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44470</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44501</v>
       </c>
@@ -17161,7 +17160,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44531</v>
       </c>
@@ -17187,7 +17186,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>84</v>
@@ -17207,7 +17206,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="48" t="s">
         <v>86</v>
       </c>
@@ -17225,7 +17224,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44562</v>
       </c>
@@ -17251,7 +17250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44593</v>
       </c>
@@ -17271,7 +17270,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>44621</v>
       </c>
@@ -17293,7 +17292,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44652</v>
       </c>
@@ -17315,7 +17314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44682</v>
       </c>
@@ -17335,7 +17334,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>44713</v>
       </c>
@@ -17361,7 +17360,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>440</v>
@@ -17383,7 +17382,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>44743</v>
       </c>
@@ -17403,7 +17402,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44774</v>
       </c>
@@ -17423,7 +17422,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44805</v>
       </c>
@@ -17449,7 +17448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>44835</v>
       </c>
@@ -17469,7 +17468,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>44866</v>
       </c>
@@ -17495,7 +17494,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44896</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="48" t="s">
         <v>97</v>
       </c>
@@ -17539,7 +17538,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="49"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>44927</v>
       </c>
@@ -17559,7 +17558,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>44958</v>
       </c>
@@ -17579,7 +17578,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44986</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45017</v>
       </c>
@@ -17625,12 +17624,12 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45047</v>
       </c>
       <c r="B681" s="20" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C681" s="13"/>
       <c r="D681" s="39"/>
@@ -17649,11 +17648,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A682" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B682" s="20"/>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A682" s="40"/>
+      <c r="B682" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C682" s="13"/>
       <c r="D682" s="39"/>
       <c r="E682" s="9"/>
@@ -17662,14 +17661,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H682" s="39"/>
+      <c r="H682" s="39">
+        <v>1</v>
+      </c>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
-      <c r="K682" s="20"/>
-    </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K682" s="49">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17685,9 +17688,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17703,9 +17706,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17721,9 +17724,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17739,9 +17742,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17757,9 +17760,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17775,8 +17778,10 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A689" s="40"/>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="40">
+        <v>45261</v>
+      </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
       <c r="D689" s="39"/>
@@ -17791,7 +17796,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17807,7 +17812,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17823,7 +17828,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17839,7 +17844,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17855,7 +17860,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17871,7 +17876,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17887,7 +17892,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17903,7 +17908,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17919,7 +17924,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17935,7 +17940,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17951,7 +17956,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17967,7 +17972,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17983,7 +17988,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17999,7 +18004,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18015,7 +18020,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18031,7 +18036,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18047,7 +18052,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18063,7 +18068,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18079,7 +18084,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18095,7 +18100,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18111,7 +18116,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18127,7 +18132,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18143,7 +18148,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18159,7 +18164,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18175,7 +18180,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18191,7 +18196,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18207,7 +18212,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18223,21 +18228,37 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A717" s="41"/>
-      <c r="B717" s="15"/>
-      <c r="C717" s="42"/>
-      <c r="D717" s="43"/>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A717" s="40"/>
+      <c r="B717" s="20"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="39"/>
       <c r="E717" s="9"/>
-      <c r="F717" s="15"/>
-      <c r="G717" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H717" s="43"/>
+      <c r="F717" s="20"/>
+      <c r="G717" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H717" s="39"/>
       <c r="I717" s="9"/>
-      <c r="J717" s="12"/>
-      <c r="K717" s="15"/>
+      <c r="J717" s="11"/>
+      <c r="K717" s="20"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A718" s="41"/>
+      <c r="B718" s="15"/>
+      <c r="C718" s="42"/>
+      <c r="D718" s="43"/>
+      <c r="E718" s="9"/>
+      <c r="F718" s="15"/>
+      <c r="G718" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="43"/>
+      <c r="I718" s="9"/>
+      <c r="J718" s="12"/>
+      <c r="K718" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18254,10 +18275,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18280,28 +18301,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -18314,7 +18335,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18343,7 +18364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18369,17 +18390,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18400,7 +18421,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18427,7 +18448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18453,7 +18474,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18479,7 +18500,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18505,7 +18526,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18531,7 +18552,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18557,7 +18578,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18583,7 +18604,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18609,7 +18630,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18629,7 +18650,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18649,7 +18670,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18669,7 +18690,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18690,7 +18711,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18711,7 +18732,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18732,7 +18753,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18753,7 +18774,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18774,7 +18795,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18795,7 +18816,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18816,7 +18837,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18837,7 +18858,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18858,7 +18879,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18879,7 +18900,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18900,7 +18921,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18921,7 +18942,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18942,7 +18963,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18963,7 +18984,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18984,7 +19005,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19005,7 +19026,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19026,7 +19047,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19047,7 +19068,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19068,7 +19089,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19089,7 +19110,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19098,7 +19119,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19107,7 +19128,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19116,7 +19137,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19125,7 +19146,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19134,7 +19155,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19143,7 +19164,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19152,7 +19173,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19161,7 +19182,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19170,7 +19191,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19179,7 +19200,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19188,7 +19209,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19197,7 +19218,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19206,7 +19227,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19215,7 +19236,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19224,7 +19245,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19233,7 +19254,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19242,7 +19263,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19251,7 +19272,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19260,7 +19281,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19269,7 +19290,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19278,7 +19299,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19287,7 +19308,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19296,7 +19317,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19305,7 +19326,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19314,7 +19335,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19323,7 +19344,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19332,7 +19353,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19341,7 +19362,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19350,7 +19371,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/OLEGARIO NENITA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="447">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2460,7 +2460,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A676" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K684" sqref="K684"/>
+      <selection pane="bottomLeft" activeCell="K686" sqref="K686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2627,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.559999999999945</v>
+        <v>69.559999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -17738,9 +17738,13 @@
       <c r="A685" s="40">
         <v>45078</v>
       </c>
-      <c r="B685" s="20"/>
+      <c r="B685" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C685" s="13"/>
-      <c r="D685" s="39"/>
+      <c r="D685" s="39">
+        <v>1</v>
+      </c>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
       <c r="G685" s="13" t="str">
@@ -17750,7 +17754,9 @@
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
-      <c r="K685" s="20"/>
+      <c r="K685" s="49">
+        <v>45097</v>
+      </c>
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">

--- a/REGULAR/OJT/NEW DONE/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/OLEGARIO NENITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94D1CE-9B84-4F4E-9E5B-A5165710BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="448">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1385,11 +1386,14 @@
   <si>
     <t>5/15,25/2023</t>
   </si>
+  <si>
+    <t>6/23,24/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2109,7 +2113,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2126,25 +2130,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K720" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K721" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2451,34 +2455,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K720"/>
+  <dimension ref="A2:K721"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A676" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="K686" sqref="K686"/>
+      <selection pane="bottomLeft" activeCell="B687" sqref="B687"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2505,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2527,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2549,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2553,7 +2557,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2566,7 +2570,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2583,7 +2587,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2637,12 +2641,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.897999999999968</v>
+        <v>54.897999999999968</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>444</v>
       </c>
@@ -2667,7 +2671,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>98</v>
       </c>
@@ -2682,7 +2686,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>34341</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>125</v>
@@ -2730,7 +2734,7 @@
         <v>34361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34366</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>34393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34394</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>34424</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>125</v>
@@ -2800,7 +2804,7 @@
         <v>34407</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>125</v>
@@ -2822,7 +2826,7 @@
         <v>34409</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>122</v>
@@ -2842,7 +2846,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -2860,7 +2864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2878,7 +2882,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>34425</v>
       </c>
@@ -2902,7 +2906,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>124</v>
@@ -2924,7 +2928,7 @@
         <v>34454</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>34455</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>95</v>
@@ -2969,7 +2973,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -2988,7 +2992,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>125</v>
@@ -3007,7 +3011,7 @@
         <v>34480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>125</v>
@@ -3029,7 +3033,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>34486</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>34515</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>125</v>
@@ -3077,7 +3081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>93</v>
@@ -3122,7 +3126,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
@@ -3141,7 +3145,7 @@
         <v>34546</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>34547</v>
       </c>
@@ -3167,7 +3171,7 @@
         <v>34577</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>125</v>
@@ -3189,7 +3193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>125</v>
@@ -3209,7 +3213,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>34578</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34608</v>
       </c>
@@ -3261,7 +3265,7 @@
         <v>34638</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
@@ -3281,7 +3285,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>125</v>
@@ -3301,7 +3305,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>34639</v>
       </c>
@@ -3327,7 +3331,7 @@
         <v>34668</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>125</v>
@@ -3349,7 +3353,7 @@
         <v>34646</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>34669</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>125</v>
@@ -3397,7 +3401,7 @@
         <v>34677</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>99</v>
       </c>
@@ -3419,7 +3423,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>34700</v>
       </c>
@@ -3441,7 +3445,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>124</v>
@@ -3463,7 +3467,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>125</v>
@@ -3485,7 +3489,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>34731</v>
       </c>
@@ -3509,7 +3513,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>124</v>
@@ -3531,7 +3535,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>125</v>
@@ -3551,7 +3555,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>34759</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -3599,7 +3603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>136</v>
@@ -3621,7 +3625,7 @@
         <v>34789</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>125</v>
@@ -3641,7 +3645,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>125</v>
@@ -3661,7 +3665,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>34790</v>
       </c>
@@ -3687,7 +3691,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>149</v>
@@ -3709,7 +3713,7 @@
         <v>34819</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>34820</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>152</v>
@@ -3757,7 +3761,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>125</v>
@@ -3779,7 +3783,7 @@
         <v>34834</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>125</v>
@@ -3801,7 +3805,7 @@
         <v>34843</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>125</v>
@@ -3823,7 +3827,7 @@
         <v>34821</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>125</v>
@@ -3845,7 +3849,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>34851</v>
       </c>
@@ -3871,7 +3875,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>132</v>
@@ -3893,7 +3897,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>125</v>
@@ -3915,7 +3919,7 @@
         <v>34872</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>34881</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>132</v>
@@ -3963,7 +3967,7 @@
         <v>34911</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>125</v>
@@ -3985,7 +3989,7 @@
         <v>34898</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>34912</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>124</v>
@@ -4033,7 +4037,7 @@
         <v>34942</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>125</v>
@@ -4055,7 +4059,7 @@
         <v>34925</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>125</v>
@@ -4077,7 +4081,7 @@
         <v>34919</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>34943</v>
       </c>
@@ -4103,7 +4107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>124</v>
@@ -4125,7 +4129,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>125</v>
@@ -4147,7 +4151,7 @@
         <v>34949</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>34973</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>35003</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>35004</v>
       </c>
@@ -4197,7 +4201,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>35034</v>
       </c>
@@ -4221,7 +4225,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>95</v>
@@ -4243,7 +4247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>132</v>
@@ -4265,7 +4269,7 @@
         <v>35064</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>125</v>
@@ -4287,7 +4291,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>100</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>35065</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>35095</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>35096</v>
       </c>
@@ -4355,7 +4359,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>35125</v>
       </c>
@@ -4379,7 +4383,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4401,7 +4405,7 @@
         <v>35143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>95</v>
@@ -4423,7 +4427,7 @@
         <v>35155</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>136</v>
@@ -4443,7 +4447,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>35156</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>35186</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>35216</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -4517,7 +4521,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>35217</v>
       </c>
@@ -4541,7 +4545,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>125</v>
@@ -4560,7 +4564,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>125</v>
@@ -4579,7 +4583,7 @@
         <v>35244</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>35247</v>
       </c>
@@ -4605,7 +4609,7 @@
         <v>35277</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>167</v>
@@ -4625,7 +4629,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>35278</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>35308</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>35309</v>
       </c>
@@ -4677,7 +4681,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>125</v>
@@ -4696,7 +4700,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>170</v>
@@ -4713,7 +4717,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>35339</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>125</v>
@@ -4761,7 +4765,7 @@
         <v>35347</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>125</v>
@@ -4783,7 +4787,7 @@
         <v>35356</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>125</v>
@@ -4805,7 +4809,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>35370</v>
       </c>
@@ -4829,7 +4833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>167</v>
@@ -4846,7 +4850,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>124</v>
@@ -4865,7 +4869,7 @@
         <v>35399</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>125</v>
@@ -4884,7 +4888,7 @@
         <v>35383</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>125</v>
@@ -4903,7 +4907,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>35400</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>35430</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>174</v>
@@ -4948,7 +4952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>125</v>
@@ -4967,7 +4971,7 @@
         <v>35405</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>125</v>
@@ -4986,7 +4990,7 @@
         <v>35412</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>125</v>
@@ -5005,7 +5009,7 @@
         <v>35426</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>101</v>
       </c>
@@ -5027,7 +5031,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>35431</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>35461</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>125</v>
@@ -5075,7 +5079,7 @@
         <v>35451</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>35462</v>
       </c>
@@ -5101,7 +5105,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>132</v>
@@ -5120,7 +5124,7 @@
         <v>35489</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>35490</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>35510</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>175</v>
@@ -5168,7 +5172,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>167</v>
@@ -5188,7 +5192,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
@@ -5210,7 +5214,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>125</v>
@@ -5232,7 +5236,7 @@
         <v>35506</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>35521</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>167</v>
@@ -5275,7 +5279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>125</v>
@@ -5294,7 +5298,7 @@
         <v>35537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>125</v>
@@ -5313,7 +5317,7 @@
         <v>35538</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>35551</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5361,7 +5365,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>35582</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5406,7 +5410,7 @@
         <v>35586</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>35612</v>
       </c>
@@ -5430,7 +5434,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -5449,7 +5453,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>125</v>
@@ -5468,7 +5472,7 @@
         <v>35627</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>35643</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -5513,7 +5517,7 @@
         <v>35663</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>35674</v>
       </c>
@@ -5537,7 +5541,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -5557,7 +5561,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5575,7 +5579,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>35704</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>35735</v>
       </c>
@@ -5625,7 +5629,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>35765</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>95</v>
@@ -5671,7 +5675,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>124</v>
@@ -5693,7 +5697,7 @@
         <v>35795</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>102</v>
       </c>
@@ -5715,7 +5719,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>35796</v>
       </c>
@@ -5739,7 +5743,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>35827</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>186</v>
@@ -5782,7 +5786,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>35855</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>35885</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>93</v>
@@ -5827,7 +5831,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>164</v>
@@ -5844,7 +5848,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>125</v>
@@ -5863,7 +5867,7 @@
         <v>35877</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>35886</v>
       </c>
@@ -5887,7 +5891,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>125</v>
@@ -5909,7 +5913,7 @@
         <v>35909</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>35916</v>
       </c>
@@ -5935,7 +5939,7 @@
         <v>35944</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>190</v>
@@ -5955,7 +5959,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>125</v>
@@ -5977,7 +5981,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>35947</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>189</v>
@@ -6023,7 +6027,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>167</v>
@@ -6043,7 +6047,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>35977</v>
       </c>
@@ -6069,7 +6073,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>125</v>
@@ -6091,7 +6095,7 @@
         <v>35989</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>36008</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>36018</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>132</v>
@@ -6139,7 +6143,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>132</v>
@@ -6161,7 +6165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>152</v>
@@ -6183,7 +6187,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>192</v>
@@ -6203,7 +6207,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>36039</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>36039</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>181</v>
@@ -6248,7 +6252,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>186</v>
@@ -6265,7 +6269,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="49"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>167</v>
@@ -6282,7 +6286,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>36069</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>36087</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>199</v>
@@ -6328,7 +6332,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>36100</v>
       </c>
@@ -6352,7 +6356,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>36130</v>
       </c>
@@ -6376,7 +6380,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>201</v>
@@ -6394,7 +6398,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="48" t="s">
         <v>103</v>
       </c>
@@ -6416,7 +6420,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>36161</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>124</v>
@@ -6461,7 +6465,7 @@
         <v>36202</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -6478,7 +6482,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>36192</v>
       </c>
@@ -6502,7 +6506,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>175</v>
@@ -6519,7 +6523,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>167</v>
@@ -6539,7 +6543,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>36220</v>
       </c>
@@ -6565,7 +6569,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>152</v>
@@ -6584,7 +6588,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>172</v>
@@ -6605,7 +6609,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>36251</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>210</v>
@@ -6653,7 +6657,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>36281</v>
       </c>
@@ -6677,7 +6681,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>167</v>
@@ -6697,7 +6701,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>36312</v>
       </c>
@@ -6721,7 +6725,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>167</v>
@@ -6743,7 +6747,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>36342</v>
       </c>
@@ -6771,7 +6775,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>214</v>
@@ -6791,7 +6795,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>36373</v>
       </c>
@@ -6817,7 +6821,7 @@
         <v>36381</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>215</v>
@@ -6837,7 +6841,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>36404</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>216</v>
@@ -6883,7 +6887,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>36434</v>
       </c>
@@ -6907,7 +6911,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>36465</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>36488</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>218</v>
@@ -6953,7 +6957,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>36495</v>
       </c>
@@ -6979,7 +6983,7 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>218</v>
@@ -6999,7 +7003,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="48" t="s">
         <v>104</v>
       </c>
@@ -7021,7 +7025,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>36526</v>
       </c>
@@ -7045,7 +7049,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>36557</v>
       </c>
@@ -7069,7 +7073,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>36586</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>224</v>
@@ -7112,7 +7116,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>167</v>
@@ -7129,7 +7133,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>167</v>
@@ -7146,7 +7150,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>36617</v>
       </c>
@@ -7170,7 +7174,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>36647</v>
       </c>
@@ -7194,7 +7198,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>167</v>
@@ -7214,7 +7218,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>36678</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>230</v>
@@ -7260,7 +7264,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>36708</v>
       </c>
@@ -7284,7 +7288,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>36739</v>
       </c>
@@ -7308,7 +7312,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>36770</v>
       </c>
@@ -7334,7 +7338,7 @@
         <v>36787</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>227</v>
@@ -7351,7 +7355,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>36800</v>
       </c>
@@ -7375,7 +7379,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>36831</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>235</v>
@@ -7418,7 +7422,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>36861</v>
       </c>
@@ -7442,7 +7446,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>105</v>
       </c>
@@ -7464,7 +7468,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>36892</v>
       </c>
@@ -7488,7 +7492,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>36923</v>
       </c>
@@ -7512,7 +7516,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>167</v>
@@ -7532,7 +7536,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>36951</v>
       </c>
@@ -7558,7 +7562,7 @@
         <v>36963</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>93</v>
@@ -7580,7 +7584,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>242</v>
@@ -7600,7 +7604,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>36982</v>
       </c>
@@ -7624,7 +7628,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7644,7 +7648,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>37012</v>
       </c>
@@ -7668,7 +7672,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>167</v>
@@ -7688,7 +7692,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>37043</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>37060</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>244</v>
@@ -7734,7 +7738,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>37073</v>
       </c>
@@ -7758,7 +7762,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>37104</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>37104</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>245</v>
@@ -7806,7 +7810,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>246</v>
@@ -7826,7 +7830,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>37135</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>37178</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>244</v>
@@ -7872,7 +7876,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>37165</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>136</v>
@@ -7920,7 +7924,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>244</v>
@@ -7940,7 +7944,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>37196</v>
       </c>
@@ -7964,7 +7968,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>37226</v>
       </c>
@@ -7990,7 +7994,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>124</v>
@@ -8012,7 +8016,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>188</v>
@@ -8032,7 +8036,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="48" t="s">
         <v>106</v>
       </c>
@@ -8054,7 +8058,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>37257</v>
       </c>
@@ -8082,7 +8086,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>222</v>
@@ -8102,7 +8106,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>37288</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>37316</v>
       </c>
@@ -8152,7 +8156,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>37347</v>
       </c>
@@ -8176,7 +8180,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>257</v>
@@ -8196,7 +8200,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>167</v>
@@ -8216,7 +8220,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>37377</v>
       </c>
@@ -8240,7 +8244,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>37408</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>37438</v>
       </c>
@@ -8290,7 +8294,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>124</v>
@@ -8312,7 +8316,7 @@
         <v>37459</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>167</v>
@@ -8332,7 +8336,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>37469</v>
       </c>
@@ -8358,7 +8362,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>37500</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>124</v>
@@ -8406,7 +8410,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>37530</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>37547</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>140</v>
@@ -8452,7 +8456,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>37561</v>
       </c>
@@ -8478,7 +8482,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>124</v>
@@ -8500,7 +8504,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>264</v>
@@ -8517,7 +8521,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="49"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>37591</v>
       </c>
@@ -8541,7 +8545,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="48" t="s">
         <v>107</v>
       </c>
@@ -8563,7 +8567,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>37622</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>266</v>
@@ -8606,7 +8610,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>167</v>
@@ -8623,7 +8627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>37653</v>
       </c>
@@ -8643,7 +8647,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>37681</v>
       </c>
@@ -8669,7 +8673,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>37712</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>37742</v>
       </c>
@@ -8715,7 +8719,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>37773</v>
       </c>
@@ -8739,7 +8743,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>37803</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>124</v>
@@ -8787,7 +8791,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>270</v>
@@ -8807,7 +8811,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>37834</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>271</v>
@@ -8853,7 +8857,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>37865</v>
       </c>
@@ -8879,7 +8883,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>136</v>
@@ -8901,7 +8905,7 @@
         <v>37879</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>136</v>
@@ -8923,7 +8927,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>272</v>
@@ -8943,7 +8947,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>37895</v>
       </c>
@@ -8969,7 +8973,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>273</v>
@@ -8989,7 +8993,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>167</v>
@@ -9009,7 +9013,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>37926</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>95</v>
@@ -9055,7 +9059,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>124</v>
@@ -9077,7 +9081,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>274</v>
@@ -9097,7 +9101,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>167</v>
@@ -9117,7 +9121,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>37956</v>
       </c>
@@ -9141,7 +9145,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="48" t="s">
         <v>108</v>
       </c>
@@ -9163,7 +9167,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>37987</v>
       </c>
@@ -9189,7 +9193,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>282</v>
@@ -9206,7 +9210,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>38018</v>
       </c>
@@ -9232,7 +9236,7 @@
         <v>38022</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>284</v>
@@ -9252,7 +9256,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>167</v>
@@ -9269,7 +9273,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>167</v>
@@ -9289,7 +9293,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>38047</v>
       </c>
@@ -9315,7 +9319,7 @@
         <v>38065</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -9337,7 +9341,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>285</v>
@@ -9357,7 +9361,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>38078</v>
       </c>
@@ -9383,7 +9387,7 @@
         <v>38098</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>124</v>
@@ -9405,7 +9409,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>286</v>
@@ -9425,7 +9429,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>38108</v>
       </c>
@@ -9451,7 +9455,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>124</v>
@@ -9473,7 +9477,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>287</v>
@@ -9493,7 +9497,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>38139</v>
       </c>
@@ -9519,7 +9523,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>124</v>
@@ -9541,7 +9545,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>167</v>
@@ -9561,7 +9565,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>93</v>
@@ -9583,7 +9587,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>288</v>
@@ -9603,7 +9607,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>38169</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>289</v>
@@ -9649,7 +9653,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>38200</v>
       </c>
@@ -9677,7 +9681,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>95</v>
@@ -9696,7 +9700,7 @@
         <v>38218</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>297</v>
@@ -9713,7 +9717,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>176</v>
@@ -9735,7 +9739,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>38231</v>
       </c>
@@ -9761,7 +9765,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>299</v>
@@ -9778,7 +9782,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>38261</v>
       </c>
@@ -9804,7 +9808,7 @@
         <v>38271</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>217</v>
@@ -9821,7 +9825,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>38292</v>
       </c>
@@ -9847,7 +9851,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>301</v>
@@ -9864,7 +9868,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>38322</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>38341</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>298</v>
@@ -9914,7 +9918,7 @@
         <v>38337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>215</v>
@@ -9931,7 +9935,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>109</v>
       </c>
@@ -9953,7 +9957,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>38353</v>
       </c>
@@ -9979,7 +9983,7 @@
         <v>38356</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>167</v>
@@ -9999,7 +10003,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>302</v>
@@ -10019,7 +10023,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>38384</v>
       </c>
@@ -10043,7 +10047,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>167</v>
@@ -10063,7 +10067,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>38412</v>
       </c>
@@ -10083,7 +10087,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>38443</v>
       </c>
@@ -10103,7 +10107,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>38473</v>
       </c>
@@ -10129,7 +10133,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>38504</v>
       </c>
@@ -10149,7 +10153,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>38534</v>
       </c>
@@ -10175,7 +10179,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>124</v>
@@ -10194,7 +10198,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>38565</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>38576</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>124</v>
@@ -10242,7 +10246,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>38596</v>
       </c>
@@ -10268,7 +10272,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>38626</v>
       </c>
@@ -10294,7 +10298,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>38657</v>
       </c>
@@ -10314,7 +10318,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>38687</v>
       </c>
@@ -10338,7 +10342,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>132</v>
@@ -10358,7 +10362,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="48" t="s">
         <v>110</v>
       </c>
@@ -10380,7 +10384,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>38718</v>
       </c>
@@ -10406,7 +10410,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>38749</v>
       </c>
@@ -10432,7 +10436,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>38777</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>167</v>
@@ -10478,7 +10482,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>311</v>
@@ -10498,7 +10502,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>38808</v>
       </c>
@@ -10524,7 +10528,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>124</v>
@@ -10546,7 +10550,7 @@
         <v>38813</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>124</v>
@@ -10568,7 +10572,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>38838</v>
       </c>
@@ -10594,7 +10598,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>38869</v>
       </c>
@@ -10614,7 +10618,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>38899</v>
       </c>
@@ -10640,7 +10644,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>136</v>
@@ -10662,7 +10666,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>38930</v>
       </c>
@@ -10682,7 +10686,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>38961</v>
       </c>
@@ -10708,7 +10712,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>306</v>
@@ -10730,7 +10734,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>124</v>
@@ -10752,7 +10756,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>38991</v>
       </c>
@@ -10778,7 +10782,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>124</v>
@@ -10800,7 +10804,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>39022</v>
       </c>
@@ -10820,7 +10824,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>39052</v>
       </c>
@@ -10846,7 +10850,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>132</v>
@@ -10868,7 +10872,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="48" t="s">
         <v>111</v>
       </c>
@@ -10892,7 +10896,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>39083</v>
       </c>
@@ -10916,7 +10920,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>167</v>
@@ -10936,7 +10940,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>39114</v>
       </c>
@@ -10962,7 +10966,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>124</v>
@@ -10984,7 +10988,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>298</v>
@@ -11008,7 +11012,7 @@
         <v>39140</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>39142</v>
       </c>
@@ -11034,7 +11038,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>39173</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>306</v>
@@ -11079,7 +11083,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -11100,7 +11104,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>39203</v>
       </c>
@@ -11120,7 +11124,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>39234</v>
       </c>
@@ -11146,7 +11150,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>298</v>
@@ -11167,7 +11171,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>201</v>
@@ -11186,7 +11190,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>39264</v>
       </c>
@@ -11214,7 +11218,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>323</v>
@@ -11236,7 +11240,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>298</v>
@@ -11258,7 +11262,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>39295</v>
       </c>
@@ -11284,7 +11288,7 @@
         <v>39296</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>298</v>
@@ -11308,7 +11312,7 @@
         <v>39313</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>39326</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>323</v>
@@ -11358,7 +11362,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>324</v>
@@ -11378,7 +11382,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>298</v>
@@ -11398,7 +11402,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>39356</v>
       </c>
@@ -11424,7 +11428,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>39387</v>
       </c>
@@ -11444,7 +11448,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>39417</v>
       </c>
@@ -11470,7 +11474,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>323</v>
@@ -11487,7 +11491,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>112</v>
       </c>
@@ -11509,7 +11513,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>39448</v>
       </c>
@@ -11535,7 +11539,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>244</v>
@@ -11555,7 +11559,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>39479</v>
       </c>
@@ -11581,7 +11585,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>39508</v>
       </c>
@@ -11605,7 +11609,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>124</v>
@@ -11627,7 +11631,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>167</v>
@@ -11647,7 +11651,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>244</v>
@@ -11667,7 +11671,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>39539</v>
       </c>
@@ -11693,7 +11697,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>332</v>
@@ -11713,7 +11717,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>39569</v>
       </c>
@@ -11739,7 +11743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>328</v>
@@ -11759,7 +11763,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>333</v>
@@ -11783,7 +11787,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>124</v>
@@ -11803,7 +11807,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>330</v>
@@ -11827,7 +11831,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>136</v>
@@ -11849,7 +11853,7 @@
       </c>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>331</v>
@@ -11869,7 +11873,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>167</v>
@@ -11889,7 +11893,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>39600</v>
       </c>
@@ -11915,7 +11919,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>39630</v>
       </c>
@@ -11939,7 +11943,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>39661</v>
       </c>
@@ -11965,7 +11969,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>332</v>
@@ -11982,7 +11986,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>39692</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>39722</v>
       </c>
@@ -12032,7 +12036,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>39753</v>
       </c>
@@ -12056,7 +12060,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>39783</v>
       </c>
@@ -12080,7 +12084,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>124</v>
@@ -12100,7 +12104,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>113</v>
       </c>
@@ -12122,7 +12126,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>39814</v>
       </c>
@@ -12142,7 +12146,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>39845</v>
       </c>
@@ -12162,7 +12166,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>39873</v>
       </c>
@@ -12182,7 +12186,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>39904</v>
       </c>
@@ -12202,7 +12206,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>39934</v>
       </c>
@@ -12226,7 +12230,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>311</v>
@@ -12246,7 +12250,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>39965</v>
       </c>
@@ -12266,7 +12270,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>39995</v>
       </c>
@@ -12286,7 +12290,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>40026</v>
       </c>
@@ -12306,7 +12310,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>40057</v>
       </c>
@@ -12332,7 +12336,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>40087</v>
       </c>
@@ -12352,7 +12356,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>40118</v>
       </c>
@@ -12372,7 +12376,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>40148</v>
       </c>
@@ -12398,7 +12402,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>310</v>
@@ -12415,7 +12419,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>353</v>
@@ -12435,7 +12439,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>348</v>
@@ -12452,7 +12456,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="48" t="s">
         <v>114</v>
       </c>
@@ -12474,7 +12478,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>40179</v>
       </c>
@@ -12494,7 +12498,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>40210</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>40238</v>
       </c>
@@ -12546,7 +12550,7 @@
         <v>40256</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>124</v>
@@ -12568,7 +12572,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>40269</v>
       </c>
@@ -12588,7 +12592,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>40299</v>
       </c>
@@ -12614,7 +12618,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>167</v>
@@ -12634,7 +12638,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>201</v>
@@ -12656,7 +12660,7 @@
         <v>40344</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>40330</v>
       </c>
@@ -12676,7 +12680,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>40360</v>
       </c>
@@ -12700,7 +12704,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>40391</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>40422</v>
       </c>
@@ -12752,7 +12756,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>132</v>
@@ -12771,7 +12775,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>354</v>
@@ -12788,7 +12792,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>40452</v>
       </c>
@@ -12812,7 +12816,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>40483</v>
       </c>
@@ -12836,7 +12840,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>40513</v>
       </c>
@@ -12856,7 +12860,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="48" t="s">
         <v>115</v>
       </c>
@@ -12878,7 +12882,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>40544</v>
       </c>
@@ -12904,7 +12908,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>213</v>
@@ -12925,7 +12929,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>40575</v>
       </c>
@@ -12945,7 +12949,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>40603</v>
       </c>
@@ -12971,7 +12975,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>40634</v>
       </c>
@@ -12995,7 +12999,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>123</v>
@@ -13012,7 +13016,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>40664</v>
       </c>
@@ -13032,7 +13036,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>40695</v>
       </c>
@@ -13056,7 +13060,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>361</v>
@@ -13073,7 +13077,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>40725</v>
       </c>
@@ -13099,7 +13103,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>245</v>
@@ -13121,7 +13125,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>40756</v>
       </c>
@@ -13145,7 +13149,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>40787</v>
       </c>
@@ -13171,7 +13175,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>40817</v>
       </c>
@@ -13197,7 +13201,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>40848</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>40878</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="48" t="s">
         <v>116</v>
       </c>
@@ -13271,7 +13275,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>40909</v>
       </c>
@@ -13291,7 +13295,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>40940</v>
       </c>
@@ -13311,7 +13315,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>40969</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>167</v>
@@ -13354,7 +13358,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>41000</v>
       </c>
@@ -13374,7 +13378,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>41030</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>370</v>
@@ -13420,7 +13424,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>41061</v>
       </c>
@@ -13444,7 +13448,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>41091</v>
       </c>
@@ -13470,7 +13474,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>124</v>
@@ -13492,7 +13496,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>372</v>
@@ -13512,7 +13516,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>41122</v>
       </c>
@@ -13536,7 +13540,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>41153</v>
       </c>
@@ -13562,7 +13566,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>41183</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>311</v>
@@ -13608,7 +13612,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>41214</v>
       </c>
@@ -13628,7 +13632,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>41244</v>
       </c>
@@ -13654,7 +13658,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="48" t="s">
         <v>117</v>
       </c>
@@ -13676,7 +13680,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>41275</v>
       </c>
@@ -13696,7 +13700,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>41306</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>41334</v>
       </c>
@@ -13740,7 +13744,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>41365</v>
       </c>
@@ -13760,7 +13764,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>41395</v>
       </c>
@@ -13780,7 +13784,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>41426</v>
       </c>
@@ -13806,7 +13810,7 @@
         <v>41453</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>381</v>
@@ -13826,7 +13830,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>41456</v>
       </c>
@@ -13846,7 +13850,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>41487</v>
       </c>
@@ -13866,7 +13870,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>41518</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>41548</v>
       </c>
@@ -13912,7 +13916,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>41579</v>
       </c>
@@ -13932,7 +13936,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>41609</v>
       </c>
@@ -13958,7 +13962,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>306</v>
@@ -13977,7 +13981,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>382</v>
@@ -13994,7 +13998,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="48" t="s">
         <v>118</v>
       </c>
@@ -14016,7 +14020,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>41640</v>
       </c>
@@ -14040,7 +14044,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>172</v>
@@ -14062,7 +14066,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>41671</v>
       </c>
@@ -14086,7 +14090,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>385</v>
@@ -14103,7 +14107,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>149</v>
@@ -14125,7 +14129,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>41699</v>
       </c>
@@ -14149,7 +14153,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>391</v>
@@ -14171,7 +14175,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>41730</v>
       </c>
@@ -14195,7 +14199,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>132</v>
@@ -14219,7 +14223,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>181</v>
@@ -14243,7 +14247,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>41760</v>
       </c>
@@ -14269,7 +14273,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>395</v>
@@ -14289,7 +14293,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>41791</v>
       </c>
@@ -14315,7 +14319,7 @@
       </c>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>132</v>
@@ -14337,7 +14341,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>41821</v>
       </c>
@@ -14361,7 +14365,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>124</v>
@@ -14383,7 +14387,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>41852</v>
       </c>
@@ -14409,7 +14413,7 @@
       </c>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>132</v>
@@ -14431,7 +14435,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>41883</v>
       </c>
@@ -14459,7 +14463,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>399</v>
@@ -14479,7 +14483,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>41913</v>
       </c>
@@ -14505,7 +14509,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>181</v>
@@ -14529,7 +14533,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>400</v>
@@ -14549,7 +14553,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>41944</v>
       </c>
@@ -14575,7 +14579,7 @@
       </c>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>132</v>
@@ -14597,7 +14601,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>41974</v>
       </c>
@@ -14625,7 +14629,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="48" t="s">
         <v>119</v>
       </c>
@@ -14647,7 +14651,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>42005</v>
       </c>
@@ -14671,7 +14675,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>403</v>
@@ -14691,7 +14695,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>42036</v>
       </c>
@@ -14711,7 +14715,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>42064</v>
       </c>
@@ -14731,7 +14735,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>42095</v>
       </c>
@@ -14757,7 +14761,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>124</v>
@@ -14779,7 +14783,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42125</v>
       </c>
@@ -14799,7 +14803,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>42156</v>
       </c>
@@ -14819,7 +14823,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42186</v>
       </c>
@@ -14839,7 +14843,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>42217</v>
       </c>
@@ -14859,7 +14863,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>42248</v>
       </c>
@@ -14885,7 +14889,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>42278</v>
       </c>
@@ -14911,7 +14915,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>136</v>
@@ -14930,7 +14934,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>167</v>
@@ -14947,7 +14951,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>414</v>
@@ -14964,7 +14968,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>42309</v>
       </c>
@@ -14988,7 +14992,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>42339</v>
       </c>
@@ -15012,7 +15016,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>416</v>
@@ -15029,7 +15033,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="48" t="s">
         <v>120</v>
       </c>
@@ -15048,7 +15052,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>42370</v>
       </c>
@@ -15068,7 +15072,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>42401</v>
       </c>
@@ -15088,7 +15092,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42430</v>
       </c>
@@ -15108,7 +15112,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>42461</v>
       </c>
@@ -15128,7 +15132,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>42491</v>
       </c>
@@ -15148,7 +15152,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>42522</v>
       </c>
@@ -15174,7 +15178,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>42552</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>42583</v>
       </c>
@@ -15226,7 +15230,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>42614</v>
       </c>
@@ -15252,7 +15256,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>42644</v>
       </c>
@@ -15272,7 +15276,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>42675</v>
       </c>
@@ -15292,7 +15296,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>42705</v>
       </c>
@@ -15318,7 +15322,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="48" t="s">
         <v>121</v>
       </c>
@@ -15340,7 +15344,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>42736</v>
       </c>
@@ -15364,7 +15368,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>42767</v>
       </c>
@@ -15390,7 +15394,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>425</v>
@@ -15410,7 +15414,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>42795</v>
       </c>
@@ -15434,7 +15438,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>124</v>
@@ -15456,7 +15460,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>181</v>
@@ -15478,7 +15482,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>384</v>
@@ -15498,7 +15502,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>42826</v>
       </c>
@@ -15524,7 +15528,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>42856</v>
       </c>
@@ -15550,7 +15554,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>42887</v>
       </c>
@@ -15570,7 +15574,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>42917</v>
       </c>
@@ -15590,7 +15594,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>42948</v>
       </c>
@@ -15616,7 +15620,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>124</v>
@@ -15638,7 +15642,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>136</v>
@@ -15660,7 +15664,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>93</v>
@@ -15682,7 +15686,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>42979</v>
       </c>
@@ -15708,7 +15712,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>43009</v>
       </c>
@@ -15734,7 +15738,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>43040</v>
       </c>
@@ -15760,7 +15764,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>290</v>
@@ -15784,7 +15788,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>43070</v>
       </c>
@@ -15810,7 +15814,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="48" t="s">
         <v>46</v>
       </c>
@@ -15828,7 +15832,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>43101</v>
       </c>
@@ -15854,7 +15858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>43132</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>43160</v>
       </c>
@@ -15906,7 +15910,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43191</v>
       </c>
@@ -15926,7 +15930,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="41">
         <v>43221</v>
       </c>
@@ -15946,7 +15950,7 @@
       <c r="J603" s="12"/>
       <c r="K603" s="15"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>43252</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43282</v>
       </c>
@@ -15998,7 +16002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>43313</v>
       </c>
@@ -16024,7 +16028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>440</v>
@@ -16046,7 +16050,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>441</v>
@@ -16068,7 +16072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43344</v>
       </c>
@@ -16088,7 +16092,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>43374</v>
       </c>
@@ -16108,7 +16112,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>43405</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -16160,7 +16164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="48" t="s">
         <v>58</v>
       </c>
@@ -16178,7 +16182,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>43466</v>
       </c>
@@ -16200,7 +16204,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>51</v>
@@ -16220,7 +16224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -16244,7 +16248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>43497</v>
       </c>
@@ -16264,7 +16268,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>43525</v>
       </c>
@@ -16284,7 +16288,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>43556</v>
       </c>
@@ -16310,7 +16314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>43586</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>47</v>
@@ -16358,7 +16362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43617</v>
       </c>
@@ -16378,7 +16382,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>43647</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>49</v>
@@ -16426,7 +16430,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>43678</v>
       </c>
@@ -16452,7 +16456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>43709</v>
       </c>
@@ -16478,7 +16482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>442</v>
@@ -16500,7 +16504,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>51</v>
@@ -16520,7 +16524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>43739</v>
       </c>
@@ -16540,7 +16544,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>43770</v>
       </c>
@@ -16566,7 +16570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>49</v>
@@ -16588,7 +16592,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>43800</v>
       </c>
@@ -16608,7 +16612,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="23" t="s">
         <v>72</v>
       </c>
@@ -16626,7 +16630,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>43831</v>
       </c>
@@ -16650,7 +16654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>51</v>
@@ -16670,7 +16674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>51</v>
@@ -16690,7 +16694,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>43862</v>
       </c>
@@ -16710,7 +16714,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>43891</v>
       </c>
@@ -16730,7 +16734,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43922</v>
       </c>
@@ -16750,7 +16754,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>43952</v>
       </c>
@@ -16770,7 +16774,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>43983</v>
       </c>
@@ -16790,7 +16794,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>44013</v>
       </c>
@@ -16816,7 +16820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>47</v>
@@ -16838,7 +16842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>44044</v>
       </c>
@@ -16858,7 +16862,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>44075</v>
       </c>
@@ -16878,7 +16882,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>44105</v>
       </c>
@@ -16898,7 +16902,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>44136</v>
       </c>
@@ -16918,7 +16922,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>44166</v>
       </c>
@@ -16942,7 +16946,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="48" t="s">
         <v>80</v>
       </c>
@@ -16960,7 +16964,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>44197</v>
       </c>
@@ -16986,7 +16990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44228</v>
       </c>
@@ -17006,7 +17010,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44256</v>
       </c>
@@ -17026,7 +17030,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>44287</v>
       </c>
@@ -17046,7 +17050,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>44317</v>
       </c>
@@ -17066,7 +17070,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44348</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44378</v>
       </c>
@@ -17110,7 +17114,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44409</v>
       </c>
@@ -17130,7 +17134,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44440</v>
       </c>
@@ -17156,7 +17160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>44470</v>
       </c>
@@ -17180,7 +17184,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>44501</v>
       </c>
@@ -17200,7 +17204,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44531</v>
       </c>
@@ -17226,7 +17230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>84</v>
@@ -17246,7 +17250,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="48" t="s">
         <v>86</v>
       </c>
@@ -17264,7 +17268,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44562</v>
       </c>
@@ -17290,7 +17294,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44593</v>
       </c>
@@ -17310,7 +17314,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>44621</v>
       </c>
@@ -17332,7 +17336,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>44652</v>
       </c>
@@ -17354,7 +17358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>44682</v>
       </c>
@@ -17374,7 +17378,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44713</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>440</v>
@@ -17422,7 +17426,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44743</v>
       </c>
@@ -17442,7 +17446,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>44774</v>
       </c>
@@ -17462,7 +17466,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>44805</v>
       </c>
@@ -17488,7 +17492,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>44835</v>
       </c>
@@ -17508,7 +17512,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44866</v>
       </c>
@@ -17534,7 +17538,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>44896</v>
       </c>
@@ -17560,7 +17564,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="48" t="s">
         <v>97</v>
       </c>
@@ -17578,7 +17582,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="49"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>44927</v>
       </c>
@@ -17598,7 +17602,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44958</v>
       </c>
@@ -17618,7 +17622,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>44986</v>
       </c>
@@ -17644,7 +17648,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>45017</v>
       </c>
@@ -17664,7 +17668,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>45047</v>
       </c>
@@ -17690,7 +17694,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>124</v>
@@ -17712,7 +17716,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>136</v>
@@ -17734,7 +17738,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>45078</v>
       </c>
@@ -17758,11 +17762,11 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A686" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B686" s="20"/>
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A686" s="40"/>
+      <c r="B686" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C686" s="13"/>
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
@@ -17771,14 +17775,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H686" s="39"/>
+      <c r="H686" s="39">
+        <v>2</v>
+      </c>
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
-      <c r="K686" s="20"/>
-    </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K686" s="49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17794,9 +17802,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17812,9 +17820,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17830,9 +17838,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17848,9 +17856,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17866,8 +17874,10 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" s="40"/>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A692" s="40">
+        <v>45261</v>
+      </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
       <c r="D692" s="39"/>
@@ -17882,7 +17892,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17898,7 +17908,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17914,7 +17924,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17930,7 +17940,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17946,7 +17956,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17962,7 +17972,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17978,7 +17988,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17994,7 +18004,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18010,7 +18020,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18026,7 +18036,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18042,7 +18052,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18058,7 +18068,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18074,7 +18084,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18090,7 +18100,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18106,7 +18116,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18122,7 +18132,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18138,7 +18148,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18154,7 +18164,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18170,7 +18180,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18186,7 +18196,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18202,7 +18212,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18218,7 +18228,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18234,7 +18244,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18250,7 +18260,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18266,7 +18276,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18282,7 +18292,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18298,7 +18308,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18314,21 +18324,37 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A720" s="41"/>
-      <c r="B720" s="15"/>
-      <c r="C720" s="42"/>
-      <c r="D720" s="43"/>
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A720" s="40"/>
+      <c r="B720" s="20"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="39"/>
       <c r="E720" s="9"/>
-      <c r="F720" s="15"/>
-      <c r="G720" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H720" s="43"/>
+      <c r="F720" s="20"/>
+      <c r="G720" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H720" s="39"/>
       <c r="I720" s="9"/>
-      <c r="J720" s="12"/>
-      <c r="K720" s="15"/>
+      <c r="J720" s="11"/>
+      <c r="K720" s="20"/>
+    </row>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A721" s="41"/>
+      <c r="B721" s="15"/>
+      <c r="C721" s="42"/>
+      <c r="D721" s="43"/>
+      <c r="E721" s="9"/>
+      <c r="F721" s="15"/>
+      <c r="G721" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="43"/>
+      <c r="I721" s="9"/>
+      <c r="J721" s="12"/>
+      <c r="K721" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18345,10 +18371,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18371,28 +18397,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -18405,7 +18431,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18434,7 +18460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18460,17 +18486,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18491,7 +18517,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18518,7 +18544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18544,7 +18570,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18570,7 +18596,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18596,7 +18622,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18622,7 +18648,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18648,7 +18674,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18674,7 +18700,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18700,7 +18726,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18720,7 +18746,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18740,7 +18766,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18760,7 +18786,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18781,7 +18807,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18802,7 +18828,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18823,7 +18849,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18844,7 +18870,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18865,7 +18891,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18886,7 +18912,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18907,7 +18933,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18928,7 +18954,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18949,7 +18975,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18970,7 +18996,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18991,7 +19017,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19012,7 +19038,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19033,7 +19059,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19054,7 +19080,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19075,7 +19101,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19096,7 +19122,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19117,7 +19143,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19138,7 +19164,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19159,7 +19185,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19180,7 +19206,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19189,7 +19215,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19198,7 +19224,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19207,7 +19233,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19216,7 +19242,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19225,7 +19251,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19234,7 +19260,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19243,7 +19269,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19252,7 +19278,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19261,7 +19287,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19270,7 +19296,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19279,7 +19305,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19288,7 +19314,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19297,7 +19323,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19306,7 +19332,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19315,7 +19341,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19324,7 +19350,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19333,7 +19359,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19342,7 +19368,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19351,7 +19377,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19360,7 +19386,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19369,7 +19395,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19378,7 +19404,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19387,7 +19413,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19396,7 +19422,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19405,7 +19431,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19414,7 +19440,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19423,7 +19449,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19432,7 +19458,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19441,7 +19467,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
